--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_18_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>974309.7692126369</v>
+        <v>969412.5326246894</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8186089.907737297</v>
+        <v>8186089.907737299</v>
       </c>
     </row>
     <row r="9">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>225.7736679371283</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T11" t="n">
-        <v>154.1895135366691</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,10 +1463,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>59.00565898536429</v>
+        <v>15.86252774276143</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U12" t="n">
         <v>195.3021387078687</v>
@@ -1511,7 +1511,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>130.6345876026394</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>80.32969213166935</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H13" t="n">
         <v>139.5954175304433</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.0607131231338</v>
+        <v>224.5243262004365</v>
       </c>
       <c r="U13" t="n">
         <v>279.9179208068699</v>
@@ -1590,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1624,10 +1624,10 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H14" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>162.011506839724</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>215.1751401124627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1694,16 +1694,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15.86252774276143</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>79.23731955398878</v>
       </c>
       <c r="T15" t="n">
         <v>153.1433946664671</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>139.5954175304433</v>
       </c>
       <c r="I16" t="n">
-        <v>42.03825870049635</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.0607131231338</v>
@@ -1824,16 +1824,16 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>166.1340604292821</v>
       </c>
     </row>
     <row r="17">
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>109.7976235593188</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.6370840092685</v>
@@ -1906,13 +1906,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>60.67065664947538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,16 +1928,16 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>60.41208939089861</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>85.6887943319354</v>
+        <v>15.86252774276156</v>
       </c>
       <c r="T18" t="n">
         <v>153.1433946664671</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>167.8355178356165</v>
+        <v>29.11948557459273</v>
       </c>
       <c r="T19" t="n">
         <v>233.0607131231338</v>
@@ -2061,16 +2061,16 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V19" t="n">
-        <v>12.38896562563266</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.3358927929698</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.8482931778549</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.7777180703237</v>
+        <v>15.86252774276143</v>
       </c>
       <c r="H21" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>153.1433946664671</v>
@@ -2225,10 +2225,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>98.76101843744179</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -2241,25 +2241,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6200590018132</v>
+        <v>159.352861569567</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T22" t="n">
-        <v>188.9571770539748</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>351.751940965639</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H23" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>227.9064056953114</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>104.7777180703239</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H24" t="n">
         <v>59.00565898536429</v>
@@ -2481,19 +2481,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H25" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>86.37808034979749</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>75.40926427707754</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V25" t="n">
-        <v>6.692435322180172</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2560,16 +2560,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>319.1056962911732</v>
       </c>
       <c r="H26" t="n">
         <v>285.9311321812619</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T26" t="n">
-        <v>58.7155443145755</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>85.68879433193592</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T27" t="n">
         <v>153.1433946664671</v>
@@ -2715,7 +2715,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I28" t="n">
-        <v>53.54105741295131</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.35255397088748</v>
+        <v>8.404096764617732</v>
       </c>
       <c r="S28" t="n">
         <v>167.8355178356165</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>203.9360536026346</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U29" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V29" t="n">
-        <v>137.093375628295</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2955,22 +2955,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>88.21981246687575</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>18.97646826262865</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3031,10 +3031,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>93.03003496380444</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>347.7351789094091</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>161.7873446268753</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>42.44427884629309</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3277,10 +3277,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>94.63621553299501</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>114.5290171374526</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3356,13 +3356,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>104.7777180703237</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>18.95509069175642</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>153.1433946664671</v>
       </c>
       <c r="U36" t="n">
-        <v>106.3869483803058</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3426,22 +3426,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>19.33790672646894</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>41.895348324564</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>111.0370328509743</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>47.29670241562988</v>
       </c>
     </row>
     <row r="39">
@@ -3593,7 +3593,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>104.7777180703237</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>5.222545353539603</v>
+        <v>113.0928263728603</v>
       </c>
       <c r="U39" t="n">
         <v>195.3021387078687</v>
@@ -3663,19 +3663,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>48.79391480851824</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6200590018132</v>
+        <v>29.11948557459214</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>210.4523473498466</v>
       </c>
       <c r="D41" t="n">
-        <v>94.63621553299495</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>21.01854486716951</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>119.2878878475953</v>
@@ -3833,10 +3833,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>153.1433946664671</v>
       </c>
       <c r="U42" t="n">
-        <v>125.4758721186941</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>184.8789988876616</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>50.32213590288286</v>
       </c>
       <c r="G43" t="n">
         <v>164.6200590018132</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>95.32914555430209</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>294.1959448519988</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T44" t="n">
         <v>210.6370840092685</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,19 +4061,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>1.406430405534054</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H45" t="n">
-        <v>38.04401443014576</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>50.80130048350461</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.37808034979749</v>
+        <v>29.11948557459214</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.74099050576839</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="C11" t="n">
-        <v>35.74099050576839</v>
+        <v>1078.029085891603</v>
       </c>
       <c r="D11" t="n">
-        <v>35.74099050576839</v>
+        <v>673.5651559846638</v>
       </c>
       <c r="E11" t="n">
-        <v>35.74099050576839</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="F11" t="n">
-        <v>35.74099050576839</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="G11" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H11" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I11" t="n">
         <v>35.74099050576839</v>
       </c>
       <c r="J11" t="n">
-        <v>142.57038546899</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K11" t="n">
-        <v>323.2290557446595</v>
+        <v>323.2290557446589</v>
       </c>
       <c r="L11" t="n">
-        <v>562.297324706479</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M11" t="n">
-        <v>841.1329596152976</v>
+        <v>841.1329596152974</v>
       </c>
       <c r="N11" t="n">
-        <v>1126.34903900405</v>
+        <v>1126.349039004049</v>
       </c>
       <c r="O11" t="n">
         <v>1390.269714189818</v>
@@ -5068,25 +5068,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S11" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T11" t="n">
-        <v>1631.302541918046</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U11" t="n">
-        <v>1631.302541918046</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="V11" t="n">
-        <v>1631.302541918046</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="W11" t="n">
-        <v>1247.542241053215</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="X11" t="n">
-        <v>846.8988432221677</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="Y11" t="n">
-        <v>445.9621701702578</v>
+        <v>1488.153676578333</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>681.5236699643028</v>
+        <v>532.1086706583163</v>
       </c>
       <c r="C12" t="n">
-        <v>547.5285987132485</v>
+        <v>398.113599407262</v>
       </c>
       <c r="D12" t="n">
-        <v>430.6314409326409</v>
+        <v>281.2164416266544</v>
       </c>
       <c r="E12" t="n">
-        <v>310.1386249249689</v>
+        <v>160.7236256189824</v>
       </c>
       <c r="F12" t="n">
-        <v>201.1787451074734</v>
+        <v>51.763745801487</v>
       </c>
       <c r="G12" t="n">
-        <v>95.3426662485606</v>
+        <v>51.763745801487</v>
       </c>
       <c r="H12" t="n">
         <v>35.74099050576839</v>
@@ -5120,25 +5120,25 @@
         <v>35.74099050576839</v>
       </c>
       <c r="J12" t="n">
-        <v>91.74661827365902</v>
+        <v>335.4150222482922</v>
       </c>
       <c r="K12" t="n">
-        <v>219.1218605877237</v>
+        <v>462.7902645623569</v>
       </c>
       <c r="L12" t="n">
-        <v>409.1542221280459</v>
+        <v>652.8226261026791</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4489796369297</v>
+        <v>882.4209603825697</v>
       </c>
       <c r="N12" t="n">
-        <v>1293.743737145814</v>
+        <v>1123.931580570561</v>
       </c>
       <c r="O12" t="n">
-        <v>1505.679754632881</v>
+        <v>1335.867598057628</v>
       </c>
       <c r="P12" t="n">
-        <v>1686.980039158656</v>
+        <v>1498.135044871826</v>
       </c>
       <c r="Q12" t="n">
         <v>1775.234255540019</v>
@@ -5147,25 +5147,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S12" t="n">
-        <v>1700.495187579394</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T12" t="n">
-        <v>1700.495187579394</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U12" t="n">
-        <v>1503.220299995688</v>
+        <v>1435.084340061818</v>
       </c>
       <c r="V12" t="n">
-        <v>1289.508772988722</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W12" t="n">
-        <v>1157.554644097167</v>
+        <v>1008.13964479118</v>
       </c>
       <c r="X12" t="n">
-        <v>981.2286622360594</v>
+        <v>831.813662930073</v>
       </c>
       <c r="Y12" t="n">
-        <v>821.8267025998895</v>
+        <v>672.411703293903</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>504.6327968110504</v>
+        <v>591.1907519829581</v>
       </c>
       <c r="C13" t="n">
-        <v>504.6327968110504</v>
+        <v>591.1907519829581</v>
       </c>
       <c r="D13" t="n">
-        <v>345.1381521339604</v>
+        <v>591.1907519829581</v>
       </c>
       <c r="E13" t="n">
-        <v>345.1381521339604</v>
+        <v>430.2799368512775</v>
       </c>
       <c r="F13" t="n">
-        <v>345.1381521339604</v>
+        <v>430.2799368512775</v>
       </c>
       <c r="G13" t="n">
         <v>263.9970489706581</v>
@@ -5202,49 +5202,49 @@
         <v>51.86344281542368</v>
       </c>
       <c r="K13" t="n">
-        <v>110.3049721335449</v>
+        <v>316.5851657192591</v>
       </c>
       <c r="L13" t="n">
-        <v>451.4831578130901</v>
+        <v>717.4611618365533</v>
       </c>
       <c r="M13" t="n">
-        <v>889.389693214169</v>
+        <v>1149.32731040154</v>
       </c>
       <c r="N13" t="n">
-        <v>1315.336568651599</v>
+        <v>1243.239884391384</v>
       </c>
       <c r="O13" t="n">
-        <v>1708.927989328892</v>
+        <v>1321.756545649937</v>
       </c>
       <c r="P13" t="n">
-        <v>1768.392458898499</v>
+        <v>1642.118498692662</v>
       </c>
       <c r="Q13" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R13" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S13" t="n">
-        <v>1575.748442655587</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T13" t="n">
-        <v>1340.333580915048</v>
+        <v>1560.25727660111</v>
       </c>
       <c r="U13" t="n">
-        <v>1057.588206362654</v>
+        <v>1277.511902048716</v>
       </c>
       <c r="V13" t="n">
-        <v>783.7024613021761</v>
+        <v>1003.626156988238</v>
       </c>
       <c r="W13" t="n">
-        <v>504.6327968110504</v>
+        <v>1003.626156988238</v>
       </c>
       <c r="X13" t="n">
-        <v>504.6327968110504</v>
+        <v>1003.626156988238</v>
       </c>
       <c r="Y13" t="n">
-        <v>504.6327968110504</v>
+        <v>778.8904583770025</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1569.700898912194</v>
+        <v>863.3428042536182</v>
       </c>
       <c r="C14" t="n">
-        <v>1569.700898912194</v>
+        <v>863.3428042536182</v>
       </c>
       <c r="D14" t="n">
-        <v>1569.700898912194</v>
+        <v>863.3428042536182</v>
       </c>
       <c r="E14" t="n">
-        <v>1155.360683429091</v>
+        <v>863.3428042536182</v>
       </c>
       <c r="F14" t="n">
-        <v>734.3302713827786</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="G14" t="n">
-        <v>327.7588696812413</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H14" t="n">
-        <v>38.93954424562315</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I14" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J14" t="n">
-        <v>142.57038546899</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K14" t="n">
-        <v>323.2290557446593</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L14" t="n">
-        <v>562.297324706479</v>
+        <v>562.2973247064783</v>
       </c>
       <c r="M14" t="n">
-        <v>841.1329596152976</v>
+        <v>841.1329596152972</v>
       </c>
       <c r="N14" t="n">
-        <v>1126.34903900405</v>
+        <v>1126.349039004049</v>
       </c>
       <c r="O14" t="n">
-        <v>1390.269714189819</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P14" t="n">
-        <v>1601.546999092374</v>
+        <v>1601.546999092373</v>
       </c>
       <c r="Q14" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R14" t="n">
         <v>1787.049525288419</v>
@@ -5308,22 +5308,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="T14" t="n">
-        <v>1787.049525288419</v>
+        <v>1623.401538581627</v>
       </c>
       <c r="U14" t="n">
-        <v>1787.049525288419</v>
+        <v>1623.401538581627</v>
       </c>
       <c r="V14" t="n">
-        <v>1787.049525288419</v>
+        <v>1273.563983918108</v>
       </c>
       <c r="W14" t="n">
-        <v>1787.049525288419</v>
+        <v>1273.563983918108</v>
       </c>
       <c r="X14" t="n">
-        <v>1787.049525288419</v>
+        <v>1273.563983918108</v>
       </c>
       <c r="Y14" t="n">
-        <v>1569.700898912194</v>
+        <v>1273.563983918108</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>532.1086706583163</v>
+        <v>452.0709741391353</v>
       </c>
       <c r="C15" t="n">
-        <v>398.113599407262</v>
+        <v>318.075902888081</v>
       </c>
       <c r="D15" t="n">
-        <v>281.2164416266544</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="E15" t="n">
-        <v>160.7236256189824</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="F15" t="n">
-        <v>51.763745801487</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G15" t="n">
-        <v>35.74099050576839</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H15" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I15" t="n">
-        <v>35.74099050576839</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J15" t="n">
-        <v>91.74661827365902</v>
+        <v>110.3534157295929</v>
       </c>
       <c r="K15" t="n">
-        <v>219.1218605877237</v>
+        <v>371.607948154501</v>
       </c>
       <c r="L15" t="n">
-        <v>409.1542221280459</v>
+        <v>561.6403096948233</v>
       </c>
       <c r="M15" t="n">
-        <v>638.7525564079365</v>
+        <v>791.2386439747138</v>
       </c>
       <c r="N15" t="n">
-        <v>880.2631765959275</v>
+        <v>1032.749264162705</v>
       </c>
       <c r="O15" t="n">
-        <v>1092.199194082995</v>
+        <v>1244.685281649772</v>
       </c>
       <c r="P15" t="n">
-        <v>1254.466640897193</v>
+        <v>1686.980039158656</v>
       </c>
       <c r="Q15" t="n">
-        <v>1687.264539063038</v>
+        <v>1775.234255540019</v>
       </c>
       <c r="R15" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S15" t="n">
-        <v>1787.049525288419</v>
+        <v>1707.011828769238</v>
       </c>
       <c r="T15" t="n">
-        <v>1632.359227645523</v>
+        <v>1552.321531126342</v>
       </c>
       <c r="U15" t="n">
-        <v>1435.084340061818</v>
+        <v>1355.046643542637</v>
       </c>
       <c r="V15" t="n">
-        <v>1221.372813054851</v>
+        <v>1141.33511653567</v>
       </c>
       <c r="W15" t="n">
-        <v>1008.13964479118</v>
+        <v>928.1019482719992</v>
       </c>
       <c r="X15" t="n">
-        <v>831.813662930073</v>
+        <v>751.7759664108919</v>
       </c>
       <c r="Y15" t="n">
-        <v>672.411703293903</v>
+        <v>592.3740067747219</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>546.4030533473003</v>
+        <v>675.0335382093249</v>
       </c>
       <c r="C16" t="n">
-        <v>546.4030533473003</v>
+        <v>503.9401657710413</v>
       </c>
       <c r="D16" t="n">
-        <v>546.4030533473003</v>
+        <v>503.9401657710413</v>
       </c>
       <c r="E16" t="n">
-        <v>385.4922382156198</v>
+        <v>343.0293506393608</v>
       </c>
       <c r="F16" t="n">
-        <v>385.4922382156198</v>
+        <v>343.0293506393608</v>
       </c>
       <c r="G16" t="n">
-        <v>219.2093503350004</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H16" t="n">
-        <v>78.20387808202733</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I16" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J16" t="n">
-        <v>116.8648064467601</v>
+        <v>51.86344281542368</v>
       </c>
       <c r="K16" t="n">
-        <v>238.3123127249818</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L16" t="n">
-        <v>325.2091976072529</v>
+        <v>511.1809682508391</v>
       </c>
       <c r="M16" t="n">
-        <v>763.1157330083317</v>
+        <v>889.3896932141686</v>
       </c>
       <c r="N16" t="n">
-        <v>1189.062608445761</v>
+        <v>1315.336568651598</v>
       </c>
       <c r="O16" t="n">
-        <v>1582.654029123055</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P16" t="n">
-        <v>1642.118498692662</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q16" t="n">
         <v>1787.049525288419</v>
@@ -5463,25 +5463,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S16" t="n">
-        <v>1617.518699191837</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T16" t="n">
-        <v>1382.103837451298</v>
+        <v>1551.63466354788</v>
       </c>
       <c r="U16" t="n">
-        <v>1099.358462898904</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="V16" t="n">
-        <v>825.472717838426</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="W16" t="n">
-        <v>546.4030533473003</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="X16" t="n">
-        <v>546.4030533473003</v>
+        <v>1030.545426855169</v>
       </c>
       <c r="Y16" t="n">
-        <v>546.4030533473003</v>
+        <v>862.7332446033693</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35.74099050576838</v>
+        <v>967.5592981543673</v>
       </c>
       <c r="C17" t="n">
-        <v>35.74099050576838</v>
+        <v>967.5592981543673</v>
       </c>
       <c r="D17" t="n">
-        <v>35.74099050576838</v>
+        <v>967.5592981543673</v>
       </c>
       <c r="E17" t="n">
-        <v>35.74099050576838</v>
+        <v>553.219082671264</v>
       </c>
       <c r="F17" t="n">
-        <v>35.74099050576838</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="G17" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H17" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I17" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J17" t="n">
         <v>142.5703854689898</v>
       </c>
       <c r="K17" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446589</v>
       </c>
       <c r="L17" t="n">
         <v>562.2973247064785</v>
       </c>
       <c r="M17" t="n">
-        <v>841.1329596152972</v>
+        <v>841.1329596152974</v>
       </c>
       <c r="N17" t="n">
         <v>1126.349039004049</v>
@@ -5533,34 +5533,34 @@
         <v>1390.269714189818</v>
       </c>
       <c r="P17" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R17" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S17" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T17" t="n">
-        <v>1488.153676578333</v>
+        <v>1574.284793965926</v>
       </c>
       <c r="U17" t="n">
-        <v>1231.265735430293</v>
+        <v>1317.396852817887</v>
       </c>
       <c r="V17" t="n">
-        <v>881.4281807667739</v>
+        <v>967.5592981543673</v>
       </c>
       <c r="W17" t="n">
-        <v>497.6678799019425</v>
+        <v>967.5592981543673</v>
       </c>
       <c r="X17" t="n">
-        <v>97.02448207089503</v>
+        <v>967.5592981543673</v>
       </c>
       <c r="Y17" t="n">
-        <v>35.74099050576838</v>
+        <v>967.5592981543673</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>445.5543329492901</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C18" t="n">
-        <v>311.5592616982358</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D18" t="n">
-        <v>311.5592616982358</v>
+        <v>265.1936863309359</v>
       </c>
       <c r="E18" t="n">
-        <v>250.5369491821766</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F18" t="n">
-        <v>141.5770693646812</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="G18" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H18" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I18" t="n">
-        <v>54.34778796170228</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J18" t="n">
         <v>354.0218197042262</v>
       </c>
       <c r="K18" t="n">
-        <v>481.3970620182909</v>
+        <v>563.6655423722059</v>
       </c>
       <c r="L18" t="n">
-        <v>671.4294235586131</v>
+        <v>753.6979039125282</v>
       </c>
       <c r="M18" t="n">
-        <v>901.0277578385036</v>
+        <v>983.2962381924187</v>
       </c>
       <c r="N18" t="n">
-        <v>1142.538378026494</v>
+        <v>1224.80685838041</v>
       </c>
       <c r="O18" t="n">
-        <v>1354.474395513562</v>
+        <v>1436.742875867477</v>
       </c>
       <c r="P18" t="n">
         <v>1599.010322681675</v>
       </c>
       <c r="Q18" t="n">
-        <v>1687.264539063037</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R18" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S18" t="n">
-        <v>1700.495187579393</v>
+        <v>1771.026769992701</v>
       </c>
       <c r="T18" t="n">
-        <v>1545.804889936497</v>
+        <v>1616.336472349805</v>
       </c>
       <c r="U18" t="n">
-        <v>1348.530002352791</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V18" t="n">
-        <v>1134.818475345825</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W18" t="n">
-        <v>921.5853070821539</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X18" t="n">
-        <v>745.2593252210468</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y18" t="n">
-        <v>585.8573655848768</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>766.0044351789697</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="C19" t="n">
-        <v>594.9110627406862</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="D19" t="n">
-        <v>594.9110627406862</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="E19" t="n">
-        <v>594.9110627406862</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="F19" t="n">
-        <v>430.2799368512775</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="G19" t="n">
-        <v>263.9970489706581</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H19" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I19" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J19" t="n">
         <v>51.86344281542368</v>
       </c>
       <c r="K19" t="n">
-        <v>316.5851657192591</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L19" t="n">
-        <v>717.4611618365533</v>
+        <v>511.1809682508391</v>
       </c>
       <c r="M19" t="n">
-        <v>810.4013477233467</v>
+        <v>949.087503651918</v>
       </c>
       <c r="N19" t="n">
-        <v>928.165124972643</v>
+        <v>1375.034379089348</v>
       </c>
       <c r="O19" t="n">
-        <v>1321.756545649937</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P19" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898499</v>
       </c>
       <c r="Q19" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R19" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S19" t="n">
-        <v>1575.748442655587</v>
+        <v>1757.635903495901</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.333580915047</v>
+        <v>1522.221041755362</v>
       </c>
       <c r="U19" t="n">
-        <v>1057.588206362654</v>
+        <v>1239.475667202968</v>
       </c>
       <c r="V19" t="n">
-        <v>1045.074099670095</v>
+        <v>965.5899221424904</v>
       </c>
       <c r="W19" t="n">
-        <v>766.0044351789697</v>
+        <v>686.5202576513648</v>
       </c>
       <c r="X19" t="n">
-        <v>766.0044351789697</v>
+        <v>448.1763955110481</v>
       </c>
       <c r="Y19" t="n">
-        <v>766.0044351789697</v>
+        <v>223.4406968998128</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1685.700138628853</v>
+        <v>1281.236208721914</v>
       </c>
       <c r="C20" t="n">
-        <v>1275.575547942124</v>
+        <v>871.1116180351842</v>
       </c>
       <c r="D20" t="n">
         <v>871.1116180351842</v>
@@ -5740,28 +5740,28 @@
         <v>456.7714025520808</v>
       </c>
       <c r="F20" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="G20" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H20" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I20" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J20" t="n">
-        <v>142.5703854689898</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K20" t="n">
-        <v>323.2290557446588</v>
+        <v>323.229055744659</v>
       </c>
       <c r="L20" t="n">
-        <v>562.2973247064784</v>
+        <v>562.2973247064787</v>
       </c>
       <c r="M20" t="n">
-        <v>841.1329596152972</v>
+        <v>841.1329596152974</v>
       </c>
       <c r="N20" t="n">
         <v>1126.349039004049</v>
@@ -5770,34 +5770,34 @@
         <v>1390.269714189818</v>
       </c>
       <c r="P20" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R20" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S20" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T20" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U20" t="n">
-        <v>1787.049525288419</v>
+        <v>1281.236208721914</v>
       </c>
       <c r="V20" t="n">
-        <v>1787.049525288419</v>
+        <v>1281.236208721914</v>
       </c>
       <c r="W20" t="n">
-        <v>1787.049525288419</v>
+        <v>1281.236208721914</v>
       </c>
       <c r="X20" t="n">
-        <v>1787.049525288419</v>
+        <v>1281.236208721914</v>
       </c>
       <c r="Y20" t="n">
-        <v>1787.049525288419</v>
+        <v>1281.236208721914</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>681.5236699643028</v>
+        <v>532.1086706583163</v>
       </c>
       <c r="C21" t="n">
-        <v>547.5285987132485</v>
+        <v>398.113599407262</v>
       </c>
       <c r="D21" t="n">
-        <v>430.6314409326409</v>
+        <v>281.2164416266544</v>
       </c>
       <c r="E21" t="n">
-        <v>310.1386249249689</v>
+        <v>160.7236256189824</v>
       </c>
       <c r="F21" t="n">
-        <v>201.1787451074734</v>
+        <v>51.763745801487</v>
       </c>
       <c r="G21" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H21" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I21" t="n">
-        <v>54.34778796170228</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J21" t="n">
-        <v>354.0218197042262</v>
+        <v>91.74661827365902</v>
       </c>
       <c r="K21" t="n">
-        <v>481.3970620182909</v>
+        <v>219.1218605877237</v>
       </c>
       <c r="L21" t="n">
-        <v>671.4294235586131</v>
+        <v>409.1542221280459</v>
       </c>
       <c r="M21" t="n">
-        <v>901.0277578385036</v>
+        <v>638.7525564079365</v>
       </c>
       <c r="N21" t="n">
-        <v>1142.538378026494</v>
+        <v>880.2631765959275</v>
       </c>
       <c r="O21" t="n">
-        <v>1354.474395513562</v>
+        <v>1092.199194082995</v>
       </c>
       <c r="P21" t="n">
-        <v>1516.74184232776</v>
+        <v>1254.466640897193</v>
       </c>
       <c r="Q21" t="n">
-        <v>1687.264539063037</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R21" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S21" t="n">
-        <v>1700.495187579393</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T21" t="n">
-        <v>1545.804889936497</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U21" t="n">
-        <v>1348.530002352791</v>
+        <v>1435.084340061818</v>
       </c>
       <c r="V21" t="n">
-        <v>1134.818475345825</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W21" t="n">
-        <v>921.5853070821539</v>
+        <v>1008.13964479118</v>
       </c>
       <c r="X21" t="n">
-        <v>821.8267025998895</v>
+        <v>831.813662930073</v>
       </c>
       <c r="Y21" t="n">
-        <v>821.8267025998895</v>
+        <v>672.411703293903</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>945.4044227347672</v>
+        <v>361.3346028290832</v>
       </c>
       <c r="C22" t="n">
-        <v>774.3110502964837</v>
+        <v>361.3346028290832</v>
       </c>
       <c r="D22" t="n">
-        <v>614.8164056193937</v>
+        <v>361.3346028290832</v>
       </c>
       <c r="E22" t="n">
-        <v>453.9055904877132</v>
+        <v>361.3346028290832</v>
       </c>
       <c r="F22" t="n">
-        <v>289.2744645983045</v>
+        <v>196.7034769396745</v>
       </c>
       <c r="G22" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H22" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I22" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J22" t="n">
-        <v>116.8648064467601</v>
+        <v>51.86344281542368</v>
       </c>
       <c r="K22" t="n">
-        <v>175.3063357648813</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L22" t="n">
-        <v>262.2032206471524</v>
+        <v>325.2091976072529</v>
       </c>
       <c r="M22" t="n">
-        <v>700.1097560482312</v>
+        <v>763.1157330083317</v>
       </c>
       <c r="N22" t="n">
-        <v>1126.056631485661</v>
+        <v>1189.062608445761</v>
       </c>
       <c r="O22" t="n">
-        <v>1519.648052162955</v>
+        <v>1582.654029123055</v>
       </c>
       <c r="P22" t="n">
-        <v>1642.118498692661</v>
+        <v>1642.118498692662</v>
       </c>
       <c r="Q22" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R22" t="n">
-        <v>1787.049525288419</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="S22" t="n">
-        <v>1787.049525288419</v>
+        <v>1575.748442655587</v>
       </c>
       <c r="T22" t="n">
-        <v>1596.183689880364</v>
+        <v>1340.333580915048</v>
       </c>
       <c r="U22" t="n">
-        <v>1596.183689880364</v>
+        <v>1340.333580915048</v>
       </c>
       <c r="V22" t="n">
-        <v>1596.183689880364</v>
+        <v>1066.44783585457</v>
       </c>
       <c r="W22" t="n">
-        <v>1596.183689880364</v>
+        <v>787.3781713634442</v>
       </c>
       <c r="X22" t="n">
-        <v>1357.839827740047</v>
+        <v>549.0343092231276</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.104129128812</v>
+        <v>549.0343092231276</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1156.977830444645</v>
+        <v>1626.89789000693</v>
       </c>
       <c r="C23" t="n">
-        <v>1156.977830444645</v>
+        <v>1216.7732993202</v>
       </c>
       <c r="D23" t="n">
-        <v>1156.977830444645</v>
+        <v>861.4683084458175</v>
       </c>
       <c r="E23" t="n">
-        <v>1156.977830444645</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="F23" t="n">
-        <v>735.9474183983323</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="G23" t="n">
-        <v>329.3760166967949</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J23" t="n">
-        <v>147.3860862243982</v>
+        <v>256.3597561632699</v>
       </c>
       <c r="K23" t="n">
-        <v>328.0447565000673</v>
+        <v>437.0184264389389</v>
       </c>
       <c r="L23" t="n">
-        <v>803.0823624768997</v>
+        <v>676.0866954007586</v>
       </c>
       <c r="M23" t="n">
-        <v>1081.917997385719</v>
+        <v>954.9223303095774</v>
       </c>
       <c r="N23" t="n">
-        <v>1367.134076774471</v>
+        <v>1240.138409698329</v>
       </c>
       <c r="O23" t="n">
-        <v>1631.054751960239</v>
+        <v>1504.059084884098</v>
       </c>
       <c r="P23" t="n">
-        <v>1842.332036862795</v>
+        <v>1715.336369786654</v>
       </c>
       <c r="Q23" t="n">
-        <v>1981.482516594539</v>
+        <v>1854.486849518397</v>
       </c>
       <c r="R23" t="n">
         <v>2027.83456305884</v>
@@ -6022,19 +6022,19 @@
         <v>2027.83456305884</v>
       </c>
       <c r="U23" t="n">
-        <v>1770.946621910801</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="V23" t="n">
-        <v>1770.946621910801</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="W23" t="n">
-        <v>1387.186321045969</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="X23" t="n">
-        <v>1156.977830444645</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="Y23" t="n">
-        <v>1156.977830444645</v>
+        <v>1626.89789000693</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>686.3393707197114</v>
       </c>
       <c r="C24" t="n">
-        <v>552.344299468657</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D24" t="n">
         <v>435.4471416880494</v>
@@ -6059,52 +6059,52 @@
         <v>205.994445862882</v>
       </c>
       <c r="G24" t="n">
-        <v>100.158367003969</v>
+        <v>100.1583670039693</v>
       </c>
       <c r="H24" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I24" t="n">
-        <v>59.16348871711071</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J24" t="n">
-        <v>115.1691164850014</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K24" t="n">
-        <v>242.5443587990661</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L24" t="n">
-        <v>742.8310506170654</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M24" t="n">
-        <v>972.429384896956</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N24" t="n">
-        <v>1213.940005084947</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O24" t="n">
-        <v>1425.876022572014</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P24" t="n">
-        <v>1927.765076929077</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q24" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R24" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S24" t="n">
-        <v>1941.280225349815</v>
+        <v>1941.280225349814</v>
       </c>
       <c r="T24" t="n">
-        <v>1786.589927706919</v>
+        <v>1786.589927706918</v>
       </c>
       <c r="U24" t="n">
         <v>1589.315040123213</v>
       </c>
       <c r="V24" t="n">
-        <v>1375.603513116247</v>
+        <v>1375.603513116246</v>
       </c>
       <c r="W24" t="n">
         <v>1162.370344852575</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.225595743149</v>
+        <v>465.1835377919964</v>
       </c>
       <c r="C25" t="n">
-        <v>920.1322233048652</v>
+        <v>294.0901653537129</v>
       </c>
       <c r="D25" t="n">
-        <v>760.6375786277752</v>
+        <v>294.0901653537129</v>
       </c>
       <c r="E25" t="n">
-        <v>599.7267634960947</v>
+        <v>294.0901653537129</v>
       </c>
       <c r="F25" t="n">
-        <v>435.095637606686</v>
+        <v>294.0901653537129</v>
       </c>
       <c r="G25" t="n">
-        <v>268.8127497260665</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="H25" t="n">
-        <v>127.8072774730935</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="I25" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J25" t="n">
-        <v>56.67914357083211</v>
+        <v>121.6805072021685</v>
       </c>
       <c r="K25" t="n">
-        <v>321.4008664746675</v>
+        <v>180.1220365202897</v>
       </c>
       <c r="L25" t="n">
-        <v>692.268195583511</v>
+        <v>580.9980326375839</v>
       </c>
       <c r="M25" t="n">
-        <v>1130.17473098459</v>
+        <v>1018.904568038663</v>
       </c>
       <c r="N25" t="n">
-        <v>1556.121606422019</v>
+        <v>1444.851443476092</v>
       </c>
       <c r="O25" t="n">
-        <v>1949.713027099313</v>
+        <v>1838.442864153386</v>
       </c>
       <c r="P25" t="n">
-        <v>2009.17749666892</v>
+        <v>1897.907333722993</v>
       </c>
       <c r="Q25" t="n">
         <v>2027.83456305884</v>
@@ -6174,25 +6174,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S25" t="n">
-        <v>2027.83456305884</v>
+        <v>1951.66358904159</v>
       </c>
       <c r="T25" t="n">
-        <v>2027.83456305884</v>
+        <v>1951.66358904159</v>
       </c>
       <c r="U25" t="n">
-        <v>2027.83456305884</v>
+        <v>1668.918214489196</v>
       </c>
       <c r="V25" t="n">
-        <v>2021.07452737987</v>
+        <v>1395.032469428718</v>
       </c>
       <c r="W25" t="n">
-        <v>1742.004862888745</v>
+        <v>1115.962804937593</v>
       </c>
       <c r="X25" t="n">
-        <v>1503.661000748428</v>
+        <v>877.6189427972761</v>
       </c>
       <c r="Y25" t="n">
-        <v>1278.925302137193</v>
+        <v>652.8832441860408</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1558.304752773568</v>
+        <v>1061.829593536225</v>
       </c>
       <c r="C26" t="n">
-        <v>1148.180162086838</v>
+        <v>651.7050028494951</v>
       </c>
       <c r="D26" t="n">
-        <v>743.7162321798983</v>
+        <v>651.7050028494951</v>
       </c>
       <c r="E26" t="n">
-        <v>329.3760166967949</v>
+        <v>651.7050028494951</v>
       </c>
       <c r="F26" t="n">
-        <v>329.3760166967949</v>
+        <v>651.7050028494951</v>
       </c>
       <c r="G26" t="n">
         <v>329.3760166967949</v>
@@ -6226,52 +6226,52 @@
         <v>40.55669126117681</v>
       </c>
       <c r="J26" t="n">
-        <v>383.355423239411</v>
+        <v>256.3597561632702</v>
       </c>
       <c r="K26" t="n">
-        <v>564.01409351508</v>
+        <v>437.0184264389392</v>
       </c>
       <c r="L26" t="n">
-        <v>803.0823624768997</v>
+        <v>676.0866954007588</v>
       </c>
       <c r="M26" t="n">
-        <v>1081.917997385719</v>
+        <v>954.9223303095777</v>
       </c>
       <c r="N26" t="n">
-        <v>1367.134076774471</v>
+        <v>1240.13840969833</v>
       </c>
       <c r="O26" t="n">
-        <v>1631.054751960239</v>
+        <v>1504.059084884098</v>
       </c>
       <c r="P26" t="n">
-        <v>1842.332036862795</v>
+        <v>1715.336369786654</v>
       </c>
       <c r="Q26" t="n">
-        <v>1981.482516594539</v>
+        <v>1854.486849518398</v>
       </c>
       <c r="R26" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S26" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="T26" t="n">
-        <v>1968.525932438057</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="U26" t="n">
-        <v>1968.525932438057</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="V26" t="n">
-        <v>1968.525932438057</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="W26" t="n">
-        <v>1968.525932438057</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="X26" t="n">
-        <v>1968.525932438057</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="Y26" t="n">
-        <v>1968.525932438057</v>
+        <v>1472.050773200715</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C27" t="n">
-        <v>552.3442994686569</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D27" t="n">
-        <v>435.4471416880493</v>
+        <v>435.4471416880497</v>
       </c>
       <c r="E27" t="n">
-        <v>314.9543256803773</v>
+        <v>314.9543256803777</v>
       </c>
       <c r="F27" t="n">
-        <v>205.9944458628819</v>
+        <v>205.9944458628822</v>
       </c>
       <c r="G27" t="n">
-        <v>100.158367003969</v>
+        <v>100.1583670039693</v>
       </c>
       <c r="H27" t="n">
         <v>40.55669126117681</v>
       </c>
       <c r="I27" t="n">
-        <v>40.55669126117681</v>
+        <v>59.16348871711071</v>
       </c>
       <c r="J27" t="n">
-        <v>340.2307230037007</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K27" t="n">
-        <v>467.6059653177654</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L27" t="n">
-        <v>657.6383268580876</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M27" t="n">
-        <v>1159.527381215151</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N27" t="n">
-        <v>1465.591896150831</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O27" t="n">
-        <v>1677.527913637898</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P27" t="n">
-        <v>1839.795360452096</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q27" t="n">
         <v>1928.049576833459</v>
@@ -6332,25 +6332,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S27" t="n">
-        <v>1941.280225349814</v>
+        <v>1941.280225349815</v>
       </c>
       <c r="T27" t="n">
-        <v>1786.589927706918</v>
+        <v>1786.589927706919</v>
       </c>
       <c r="U27" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V27" t="n">
-        <v>1375.603513116246</v>
+        <v>1375.603513116247</v>
       </c>
       <c r="W27" t="n">
         <v>1162.370344852575</v>
       </c>
       <c r="X27" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y27" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.6385674358751</v>
+        <v>352.6555359524334</v>
       </c>
       <c r="C28" t="n">
-        <v>94.6385674358751</v>
+        <v>181.5621635141499</v>
       </c>
       <c r="D28" t="n">
-        <v>94.6385674358751</v>
+        <v>181.5621635141499</v>
       </c>
       <c r="E28" t="n">
-        <v>94.6385674358751</v>
+        <v>181.5621635141499</v>
       </c>
       <c r="F28" t="n">
-        <v>94.6385674358751</v>
+        <v>181.5621635141499</v>
       </c>
       <c r="G28" t="n">
-        <v>94.6385674358751</v>
+        <v>181.5621635141499</v>
       </c>
       <c r="H28" t="n">
-        <v>94.6385674358751</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I28" t="n">
         <v>40.55669126117681</v>
       </c>
       <c r="J28" t="n">
-        <v>56.67914357083211</v>
+        <v>110.7393426035488</v>
       </c>
       <c r="K28" t="n">
-        <v>115.1206728889534</v>
+        <v>375.4610655073843</v>
       </c>
       <c r="L28" t="n">
-        <v>515.9966690062475</v>
+        <v>776.3370616246784</v>
       </c>
       <c r="M28" t="n">
-        <v>953.9032044073265</v>
+        <v>869.2772475114718</v>
       </c>
       <c r="N28" t="n">
-        <v>1379.850079844756</v>
+        <v>1295.224122948901</v>
       </c>
       <c r="O28" t="n">
-        <v>1773.44150052205</v>
+        <v>1688.815543626195</v>
       </c>
       <c r="P28" t="n">
         <v>2009.17749666892</v>
@@ -6408,28 +6408,28 @@
         <v>2027.83456305884</v>
       </c>
       <c r="R28" t="n">
-        <v>1986.06430652259</v>
+        <v>2019.345576427913</v>
       </c>
       <c r="S28" t="n">
-        <v>1816.533480426008</v>
+        <v>1849.814750331331</v>
       </c>
       <c r="T28" t="n">
-        <v>1581.118618685469</v>
+        <v>1614.399888590792</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.373244133075</v>
+        <v>1331.654514038398</v>
       </c>
       <c r="V28" t="n">
-        <v>1024.487499072597</v>
+        <v>1057.76876897792</v>
       </c>
       <c r="W28" t="n">
-        <v>745.4178345814714</v>
+        <v>778.6991044867943</v>
       </c>
       <c r="X28" t="n">
-        <v>507.0739724411548</v>
+        <v>540.3552423464778</v>
       </c>
       <c r="Y28" t="n">
-        <v>282.3382738299195</v>
+        <v>540.3552423464778</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>447.1280929627141</v>
+        <v>660.892920484315</v>
       </c>
       <c r="C29" t="n">
-        <v>447.1280929627141</v>
+        <v>660.892920484315</v>
       </c>
       <c r="D29" t="n">
-        <v>447.1280929627141</v>
+        <v>660.892920484315</v>
       </c>
       <c r="E29" t="n">
-        <v>447.1280929627141</v>
+        <v>246.5527050012117</v>
       </c>
       <c r="F29" t="n">
-        <v>447.1280929627141</v>
+        <v>246.5527050012117</v>
       </c>
       <c r="G29" t="n">
-        <v>40.55669126117681</v>
+        <v>246.5527050012117</v>
       </c>
       <c r="H29" t="n">
         <v>40.55669126117681</v>
@@ -6463,52 +6463,52 @@
         <v>40.55669126117681</v>
       </c>
       <c r="J29" t="n">
-        <v>383.355423239411</v>
+        <v>256.3597561632702</v>
       </c>
       <c r="K29" t="n">
-        <v>564.01409351508</v>
+        <v>437.0184264389392</v>
       </c>
       <c r="L29" t="n">
-        <v>803.0823624768997</v>
+        <v>676.0866954007588</v>
       </c>
       <c r="M29" t="n">
-        <v>1081.917997385719</v>
+        <v>954.9223303095777</v>
       </c>
       <c r="N29" t="n">
-        <v>1367.134076774471</v>
+        <v>1240.13840969833</v>
       </c>
       <c r="O29" t="n">
-        <v>1631.054751960239</v>
+        <v>1504.059084884098</v>
       </c>
       <c r="P29" t="n">
-        <v>1842.332036862795</v>
+        <v>1715.336369786654</v>
       </c>
       <c r="Q29" t="n">
-        <v>1981.482516594539</v>
+        <v>1854.486849518398</v>
       </c>
       <c r="R29" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S29" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="T29" t="n">
-        <v>2027.83456305884</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="U29" t="n">
-        <v>1770.946621910801</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.468464710503</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="W29" t="n">
-        <v>1248.708163845671</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="X29" t="n">
-        <v>848.064766014624</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="Y29" t="n">
-        <v>447.1280929627141</v>
+        <v>1071.114100148804</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>59.16348871711071</v>
       </c>
       <c r="J30" t="n">
-        <v>115.1691164850014</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K30" t="n">
-        <v>242.5443587990661</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L30" t="n">
-        <v>432.5767203393883</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M30" t="n">
-        <v>934.4657746964513</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N30" t="n">
-        <v>1436.354829053514</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O30" t="n">
-        <v>1677.527913637898</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P30" t="n">
-        <v>1839.795360452096</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q30" t="n">
         <v>1928.049576833459</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>928.4548053255362</v>
+        <v>371.8236857126643</v>
       </c>
       <c r="C31" t="n">
-        <v>757.3614328872527</v>
+        <v>200.7303132743808</v>
       </c>
       <c r="D31" t="n">
-        <v>597.8667882101627</v>
+        <v>200.7303132743808</v>
       </c>
       <c r="E31" t="n">
-        <v>436.9559730784821</v>
+        <v>200.7303132743808</v>
       </c>
       <c r="F31" t="n">
-        <v>347.8450513947693</v>
+        <v>200.7303132743808</v>
       </c>
       <c r="G31" t="n">
-        <v>181.5621635141499</v>
+        <v>200.7303132743808</v>
       </c>
       <c r="H31" t="n">
-        <v>40.55669126117681</v>
+        <v>59.72484102140777</v>
       </c>
       <c r="I31" t="n">
         <v>40.55669126117681</v>
       </c>
       <c r="J31" t="n">
-        <v>56.67914357083211</v>
+        <v>121.6805072021685</v>
       </c>
       <c r="K31" t="n">
-        <v>115.1206728889534</v>
+        <v>180.1220365202897</v>
       </c>
       <c r="L31" t="n">
-        <v>431.370712110393</v>
+        <v>580.9980326375839</v>
       </c>
       <c r="M31" t="n">
-        <v>869.2772475114718</v>
+        <v>1018.904568038663</v>
       </c>
       <c r="N31" t="n">
-        <v>1295.224122948901</v>
+        <v>1444.851443476092</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.815543626195</v>
+        <v>1838.442864153386</v>
       </c>
       <c r="P31" t="n">
-        <v>2009.17749666892</v>
+        <v>1897.907333722993</v>
       </c>
       <c r="Q31" t="n">
         <v>2027.83456305884</v>
@@ -6654,19 +6654,19 @@
         <v>1858.303736962258</v>
       </c>
       <c r="U31" t="n">
-        <v>1858.303736962258</v>
+        <v>1575.558362409864</v>
       </c>
       <c r="V31" t="n">
-        <v>1858.303736962258</v>
+        <v>1301.672617349386</v>
       </c>
       <c r="W31" t="n">
-        <v>1579.234072471132</v>
+        <v>1022.602952858261</v>
       </c>
       <c r="X31" t="n">
-        <v>1340.890210330816</v>
+        <v>784.259090717944</v>
       </c>
       <c r="Y31" t="n">
-        <v>1116.154511719581</v>
+        <v>559.5233921067087</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>464.785657047344</v>
+        <v>968.8799800207451</v>
       </c>
       <c r="C32" t="n">
-        <v>464.785657047344</v>
+        <v>558.7553893340151</v>
       </c>
       <c r="D32" t="n">
         <v>464.785657047344</v>
@@ -6688,16 +6688,16 @@
         <v>464.785657047344</v>
       </c>
       <c r="F32" t="n">
-        <v>43.75524500103158</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="G32" t="n">
-        <v>43.75524500103158</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="H32" t="n">
-        <v>43.75524500103158</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="I32" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J32" t="n">
         <v>383.355423239411</v>
@@ -6727,25 +6727,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S32" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="T32" t="n">
-        <v>2027.83456305884</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="U32" t="n">
-        <v>2027.83456305884</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="V32" t="n">
-        <v>2027.83456305884</v>
+        <v>1379.101159685235</v>
       </c>
       <c r="W32" t="n">
-        <v>1676.586907594791</v>
+        <v>1379.101159685235</v>
       </c>
       <c r="X32" t="n">
-        <v>1275.943509763743</v>
+        <v>1379.101159685235</v>
       </c>
       <c r="Y32" t="n">
-        <v>875.0068367118336</v>
+        <v>1379.101159685235</v>
       </c>
     </row>
     <row r="33">
@@ -6761,22 +6761,22 @@
         <v>552.3442994686571</v>
       </c>
       <c r="D33" t="n">
-        <v>435.4471416880497</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E33" t="n">
-        <v>314.9543256803777</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F33" t="n">
-        <v>205.9944458628822</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G33" t="n">
-        <v>100.1583670039692</v>
+        <v>100.1583670039693</v>
       </c>
       <c r="H33" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I33" t="n">
-        <v>59.16348871711071</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J33" t="n">
         <v>358.8375204596346</v>
@@ -6794,28 +6794,28 @@
         <v>1147.354078781903</v>
       </c>
       <c r="O33" t="n">
-        <v>1359.527473111106</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P33" t="n">
-        <v>1521.794919925304</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q33" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R33" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S33" t="n">
-        <v>1941.280225349815</v>
+        <v>1941.280225349814</v>
       </c>
       <c r="T33" t="n">
-        <v>1786.589927706919</v>
+        <v>1786.589927706918</v>
       </c>
       <c r="U33" t="n">
         <v>1589.315040123213</v>
       </c>
       <c r="V33" t="n">
-        <v>1375.603513116247</v>
+        <v>1375.603513116246</v>
       </c>
       <c r="W33" t="n">
         <v>1162.370344852575</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>541.3545118092467</v>
+        <v>419.1541985245186</v>
       </c>
       <c r="C34" t="n">
-        <v>370.2611393709632</v>
+        <v>248.0608260862351</v>
       </c>
       <c r="D34" t="n">
-        <v>370.2611393709632</v>
+        <v>248.0608260862351</v>
       </c>
       <c r="E34" t="n">
-        <v>370.2611393709632</v>
+        <v>248.0608260862351</v>
       </c>
       <c r="F34" t="n">
-        <v>206.8395791417962</v>
+        <v>83.42970019682639</v>
       </c>
       <c r="G34" t="n">
-        <v>40.55669126117681</v>
+        <v>83.42970019682639</v>
       </c>
       <c r="H34" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I34" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J34" t="n">
-        <v>56.67914357083211</v>
+        <v>106.6767099422583</v>
       </c>
       <c r="K34" t="n">
-        <v>115.1206728889534</v>
+        <v>165.1182392603795</v>
       </c>
       <c r="L34" t="n">
-        <v>515.9966690062475</v>
+        <v>565.9942353776737</v>
       </c>
       <c r="M34" t="n">
-        <v>953.9032044073265</v>
+        <v>1003.900770778753</v>
       </c>
       <c r="N34" t="n">
-        <v>1379.850079844756</v>
+        <v>1429.847646216182</v>
       </c>
       <c r="O34" t="n">
-        <v>1773.44150052205</v>
+        <v>1823.439066893476</v>
       </c>
       <c r="P34" t="n">
-        <v>2009.17749666892</v>
+        <v>1882.903536463082</v>
       </c>
       <c r="Q34" t="n">
         <v>2027.83456305884</v>
@@ -6885,25 +6885,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S34" t="n">
-        <v>2027.83456305884</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T34" t="n">
-        <v>2027.83456305884</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="U34" t="n">
-        <v>1745.089188506447</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="V34" t="n">
-        <v>1471.203443445969</v>
+        <v>1349.003130161241</v>
       </c>
       <c r="W34" t="n">
-        <v>1192.133778954843</v>
+        <v>1069.933465670115</v>
       </c>
       <c r="X34" t="n">
-        <v>953.7899168145264</v>
+        <v>831.5896035297983</v>
       </c>
       <c r="Y34" t="n">
-        <v>729.054218203291</v>
+        <v>606.853904918563</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1376.828345623929</v>
+        <v>860.2057966756015</v>
       </c>
       <c r="C35" t="n">
-        <v>966.7037549371993</v>
+        <v>450.0812059888717</v>
       </c>
       <c r="D35" t="n">
-        <v>966.7037549371993</v>
+        <v>450.0812059888717</v>
       </c>
       <c r="E35" t="n">
-        <v>552.363539454096</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="F35" t="n">
-        <v>131.3331274077835</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="G35" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="H35" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="I35" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="J35" t="n">
         <v>142.5703854689898</v>
@@ -6949,40 +6949,40 @@
         <v>841.1329596152973</v>
       </c>
       <c r="N35" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.349039004048</v>
       </c>
       <c r="O35" t="n">
-        <v>1390.269714189818</v>
+        <v>1390.269714189817</v>
       </c>
       <c r="P35" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092372</v>
       </c>
       <c r="Q35" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824116</v>
       </c>
       <c r="R35" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="S35" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="T35" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="U35" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="V35" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="W35" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="X35" t="n">
-        <v>1787.049525288419</v>
+        <v>1671.363649392001</v>
       </c>
       <c r="Y35" t="n">
-        <v>1787.049525288419</v>
+        <v>1270.426976340091</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>621.9219942215105</v>
+        <v>532.1086706583145</v>
       </c>
       <c r="C36" t="n">
-        <v>487.9269229704562</v>
+        <v>398.1135994072602</v>
       </c>
       <c r="D36" t="n">
-        <v>371.0297651898487</v>
+        <v>281.2164416266526</v>
       </c>
       <c r="E36" t="n">
-        <v>250.5369491821766</v>
+        <v>160.7236256189806</v>
       </c>
       <c r="F36" t="n">
-        <v>141.5770693646812</v>
+        <v>160.7236256189806</v>
       </c>
       <c r="G36" t="n">
-        <v>35.74099050576837</v>
+        <v>54.88754676006776</v>
       </c>
       <c r="H36" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="I36" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="J36" t="n">
-        <v>91.74661827365901</v>
+        <v>335.4150222482922</v>
       </c>
       <c r="K36" t="n">
-        <v>219.1218605877237</v>
+        <v>462.7902645623569</v>
       </c>
       <c r="L36" t="n">
-        <v>409.1542221280459</v>
+        <v>652.8226261026791</v>
       </c>
       <c r="M36" t="n">
-        <v>638.7525564079365</v>
+        <v>882.4209603825697</v>
       </c>
       <c r="N36" t="n">
-        <v>1032.749264162705</v>
+        <v>1123.931580570561</v>
       </c>
       <c r="O36" t="n">
-        <v>1244.685281649772</v>
+        <v>1335.867598057628</v>
       </c>
       <c r="P36" t="n">
-        <v>1686.980039158656</v>
+        <v>1498.135044871826</v>
       </c>
       <c r="Q36" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063036</v>
       </c>
       <c r="R36" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="S36" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="T36" t="n">
-        <v>1632.359227645523</v>
+        <v>1632.359227645522</v>
       </c>
       <c r="U36" t="n">
-        <v>1524.897663625012</v>
+        <v>1435.084340061816</v>
       </c>
       <c r="V36" t="n">
-        <v>1311.186136618046</v>
+        <v>1221.37281305485</v>
       </c>
       <c r="W36" t="n">
-        <v>1097.952968354374</v>
+        <v>1008.139644791178</v>
       </c>
       <c r="X36" t="n">
-        <v>921.6269864932672</v>
+        <v>831.8136629300711</v>
       </c>
       <c r="Y36" t="n">
-        <v>762.2250268570972</v>
+        <v>672.4117032939012</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>413.7840224946364</v>
+        <v>355.7743465534768</v>
       </c>
       <c r="C37" t="n">
-        <v>242.6906500563529</v>
+        <v>336.2411074358314</v>
       </c>
       <c r="D37" t="n">
-        <v>242.6906500563529</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="E37" t="n">
-        <v>242.6906500563529</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="F37" t="n">
-        <v>78.05952416694413</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="G37" t="n">
-        <v>35.74099050576837</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H37" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="I37" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="J37" t="n">
-        <v>51.86344281542367</v>
+        <v>51.86344281542365</v>
       </c>
       <c r="K37" t="n">
         <v>110.3049721335449</v>
       </c>
       <c r="L37" t="n">
-        <v>451.4831578130892</v>
+        <v>451.4831578130883</v>
       </c>
       <c r="M37" t="n">
-        <v>889.3896932141681</v>
+        <v>889.3896932141672</v>
       </c>
       <c r="N37" t="n">
-        <v>1315.336568651598</v>
+        <v>1315.336568651597</v>
       </c>
       <c r="O37" t="n">
-        <v>1708.927989328892</v>
+        <v>1708.927989328891</v>
       </c>
       <c r="P37" t="n">
-        <v>1768.392458898498</v>
+        <v>1768.392458898497</v>
       </c>
       <c r="Q37" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="R37" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="S37" t="n">
-        <v>1617.518699191836</v>
+        <v>1617.518699191835</v>
       </c>
       <c r="T37" t="n">
-        <v>1617.518699191836</v>
+        <v>1617.518699191835</v>
       </c>
       <c r="U37" t="n">
-        <v>1617.518699191836</v>
+        <v>1334.773324639441</v>
       </c>
       <c r="V37" t="n">
-        <v>1343.632954131358</v>
+        <v>1060.887579578963</v>
       </c>
       <c r="W37" t="n">
-        <v>1064.563289640233</v>
+        <v>781.8179150878377</v>
       </c>
       <c r="X37" t="n">
-        <v>826.219427499916</v>
+        <v>543.4740529475212</v>
       </c>
       <c r="Y37" t="n">
-        <v>601.4837288886807</v>
+        <v>543.4740529475212</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1264.669726582541</v>
+        <v>748.7892817275538</v>
       </c>
       <c r="C38" t="n">
-        <v>854.5451358958112</v>
+        <v>748.7892817275538</v>
       </c>
       <c r="D38" t="n">
-        <v>450.0812059888717</v>
+        <v>748.7892817275538</v>
       </c>
       <c r="E38" t="n">
-        <v>35.74099050576837</v>
+        <v>748.7892817275538</v>
       </c>
       <c r="F38" t="n">
-        <v>35.74099050576837</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="G38" t="n">
-        <v>35.74099050576837</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="H38" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="I38" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J38" t="n">
-        <v>142.5703854689895</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K38" t="n">
-        <v>323.2290557446585</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L38" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M38" t="n">
-        <v>841.132959615297</v>
+        <v>841.1329596152972</v>
       </c>
       <c r="N38" t="n">
         <v>1126.349039004049</v>
@@ -7207,19 +7207,19 @@
         <v>1787.049525288419</v>
       </c>
       <c r="U38" t="n">
-        <v>1674.89090624703</v>
+        <v>1530.161584140379</v>
       </c>
       <c r="V38" t="n">
-        <v>1674.89090624703</v>
+        <v>1180.32402947686</v>
       </c>
       <c r="W38" t="n">
-        <v>1674.89090624703</v>
+        <v>796.5637286120284</v>
       </c>
       <c r="X38" t="n">
-        <v>1674.89090624703</v>
+        <v>796.5637286120284</v>
       </c>
       <c r="Y38" t="n">
-        <v>1674.89090624703</v>
+        <v>748.7892817275538</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>681.5236699643028</v>
+        <v>572.5637901468074</v>
       </c>
       <c r="C39" t="n">
-        <v>547.5285987132485</v>
+        <v>438.568718895753</v>
       </c>
       <c r="D39" t="n">
-        <v>430.6314409326409</v>
+        <v>321.6715611151454</v>
       </c>
       <c r="E39" t="n">
-        <v>310.1386249249689</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="F39" t="n">
         <v>201.1787451074734</v>
@@ -7250,31 +7250,31 @@
         <v>35.74099050576837</v>
       </c>
       <c r="I39" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J39" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K39" t="n">
-        <v>462.7902645623569</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L39" t="n">
-        <v>652.8226261026791</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M39" t="n">
-        <v>882.4209603825697</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N39" t="n">
-        <v>1123.931580570561</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O39" t="n">
-        <v>1335.867598057628</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P39" t="n">
-        <v>1498.135044871826</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q39" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R39" t="n">
         <v>1787.049525288419</v>
@@ -7283,22 +7283,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="T39" t="n">
-        <v>1781.77422695151</v>
+        <v>1672.814347134014</v>
       </c>
       <c r="U39" t="n">
-        <v>1584.499339367804</v>
+        <v>1475.539459550308</v>
       </c>
       <c r="V39" t="n">
-        <v>1370.787812360838</v>
+        <v>1261.827932543342</v>
       </c>
       <c r="W39" t="n">
-        <v>1157.554644097167</v>
+        <v>1048.594764279671</v>
       </c>
       <c r="X39" t="n">
-        <v>981.2286622360594</v>
+        <v>872.268782418564</v>
       </c>
       <c r="Y39" t="n">
-        <v>821.8267025998895</v>
+        <v>712.866822782394</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>583.3148485912187</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="C40" t="n">
-        <v>412.2214761529352</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="D40" t="n">
-        <v>412.2214761529352</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="E40" t="n">
-        <v>251.3106610212547</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="F40" t="n">
-        <v>202.0238783863878</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="G40" t="n">
         <v>35.74099050576837</v>
@@ -7338,13 +7338,13 @@
         <v>110.3049721335449</v>
       </c>
       <c r="L40" t="n">
-        <v>511.1809682508391</v>
+        <v>451.4831578130892</v>
       </c>
       <c r="M40" t="n">
-        <v>949.087503651918</v>
+        <v>889.3896932141681</v>
       </c>
       <c r="N40" t="n">
-        <v>1375.034379089348</v>
+        <v>1315.336568651598</v>
       </c>
       <c r="O40" t="n">
         <v>1708.927989328892</v>
@@ -7362,22 +7362,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="T40" t="n">
-        <v>1787.049525288419</v>
+        <v>1551.634663547879</v>
       </c>
       <c r="U40" t="n">
-        <v>1787.049525288419</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="V40" t="n">
-        <v>1513.163780227941</v>
+        <v>995.0035439350077</v>
       </c>
       <c r="W40" t="n">
-        <v>1234.094115736815</v>
+        <v>715.933879443882</v>
       </c>
       <c r="X40" t="n">
-        <v>995.7502535964984</v>
+        <v>477.5900173035654</v>
       </c>
       <c r="Y40" t="n">
-        <v>771.0145549852631</v>
+        <v>252.8543186923301</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1376.828345623929</v>
+        <v>1488.153676578332</v>
       </c>
       <c r="C41" t="n">
-        <v>966.7037549371993</v>
+        <v>1275.575547942124</v>
       </c>
       <c r="D41" t="n">
         <v>871.1116180351842</v>
@@ -7438,25 +7438,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S41" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T41" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578332</v>
       </c>
       <c r="U41" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578332</v>
       </c>
       <c r="V41" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578332</v>
       </c>
       <c r="W41" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578332</v>
       </c>
       <c r="X41" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578332</v>
       </c>
       <c r="Y41" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578332</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.0859153625977</v>
+        <v>564.6265121836952</v>
       </c>
       <c r="C42" t="n">
-        <v>382.0908441115434</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="D42" t="n">
-        <v>265.1936863309358</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="E42" t="n">
-        <v>144.7008703232638</v>
+        <v>310.1386249249689</v>
       </c>
       <c r="F42" t="n">
-        <v>35.74099050576837</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G42" t="n">
-        <v>35.74099050576837</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H42" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="I42" t="n">
-        <v>54.34778796170227</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J42" t="n">
-        <v>110.3534157295929</v>
+        <v>244.2327058404363</v>
       </c>
       <c r="K42" t="n">
-        <v>311.4031464036439</v>
+        <v>371.607948154501</v>
       </c>
       <c r="L42" t="n">
-        <v>753.6979039125275</v>
+        <v>561.6403096948233</v>
       </c>
       <c r="M42" t="n">
-        <v>983.2962381924181</v>
+        <v>791.2386439747138</v>
       </c>
       <c r="N42" t="n">
-        <v>1224.806858380409</v>
+        <v>1032.749264162705</v>
       </c>
       <c r="O42" t="n">
-        <v>1436.742875867476</v>
+        <v>1244.685281649772</v>
       </c>
       <c r="P42" t="n">
-        <v>1599.010322681674</v>
+        <v>1686.980039158656</v>
       </c>
       <c r="Q42" t="n">
-        <v>1687.264539063037</v>
+        <v>1775.234255540018</v>
       </c>
       <c r="R42" t="n">
         <v>1787.049525288419</v>
@@ -7523,19 +7523,19 @@
         <v>1545.804889936497</v>
       </c>
       <c r="U42" t="n">
-        <v>1419.061584766099</v>
+        <v>1348.530002352791</v>
       </c>
       <c r="V42" t="n">
-        <v>1205.350057759133</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="W42" t="n">
-        <v>992.1168894954615</v>
+        <v>921.5853070821537</v>
       </c>
       <c r="X42" t="n">
-        <v>815.7909076343543</v>
+        <v>745.2593252210465</v>
       </c>
       <c r="Y42" t="n">
-        <v>656.3889479981843</v>
+        <v>585.8573655848766</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>858.1538365228505</v>
+        <v>252.8543186923301</v>
       </c>
       <c r="C43" t="n">
-        <v>687.060464084567</v>
+        <v>252.8543186923301</v>
       </c>
       <c r="D43" t="n">
-        <v>527.565819407477</v>
+        <v>252.8543186923301</v>
       </c>
       <c r="E43" t="n">
-        <v>366.6550042757965</v>
+        <v>252.8543186923301</v>
       </c>
       <c r="F43" t="n">
         <v>202.0238783863878</v>
@@ -7599,22 +7599,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="T43" t="n">
-        <v>1787.049525288419</v>
+        <v>1551.634663547879</v>
       </c>
       <c r="U43" t="n">
-        <v>1787.049525288419</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="V43" t="n">
-        <v>1787.049525288419</v>
+        <v>995.0035439350077</v>
       </c>
       <c r="W43" t="n">
-        <v>1507.979860797293</v>
+        <v>715.933879443882</v>
       </c>
       <c r="X43" t="n">
-        <v>1269.635998656976</v>
+        <v>477.5900173035654</v>
       </c>
       <c r="Y43" t="n">
-        <v>1044.900300045741</v>
+        <v>252.8543186923301</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1164.063614301436</v>
+        <v>830.6223375992454</v>
       </c>
       <c r="C44" t="n">
-        <v>753.9390236147059</v>
+        <v>830.6223375992454</v>
       </c>
       <c r="D44" t="n">
-        <v>753.9390236147059</v>
+        <v>734.3302713827786</v>
       </c>
       <c r="E44" t="n">
-        <v>753.9390236147059</v>
+        <v>734.3302713827786</v>
       </c>
       <c r="F44" t="n">
-        <v>332.9086115683934</v>
+        <v>734.3302713827786</v>
       </c>
       <c r="G44" t="n">
-        <v>35.74099050576837</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="H44" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="I44" t="n">
         <v>35.74099050576837</v>
@@ -7657,7 +7657,7 @@
         <v>562.2973247064784</v>
       </c>
       <c r="M44" t="n">
-        <v>841.1329596152972</v>
+        <v>841.1329596152973</v>
       </c>
       <c r="N44" t="n">
         <v>1126.349039004049</v>
@@ -7675,25 +7675,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S44" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T44" t="n">
-        <v>1574.284793965925</v>
+        <v>1488.153676578332</v>
       </c>
       <c r="U44" t="n">
-        <v>1574.284793965925</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="V44" t="n">
-        <v>1574.284793965925</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="W44" t="n">
-        <v>1574.284793965925</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="X44" t="n">
-        <v>1574.284793965925</v>
+        <v>830.6223375992454</v>
       </c>
       <c r="Y44" t="n">
-        <v>1574.284793965925</v>
+        <v>830.6223375992454</v>
       </c>
     </row>
     <row r="45">
@@ -7709,43 +7709,43 @@
         <v>311.5592616982356</v>
       </c>
       <c r="D45" t="n">
-        <v>194.662103917628</v>
+        <v>310.1386249249689</v>
       </c>
       <c r="E45" t="n">
-        <v>74.16928790995601</v>
+        <v>310.1386249249689</v>
       </c>
       <c r="F45" t="n">
-        <v>74.16928790995601</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G45" t="n">
-        <v>74.16928790995601</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H45" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="I45" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J45" t="n">
-        <v>91.74661827365901</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K45" t="n">
-        <v>219.1218605877237</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L45" t="n">
-        <v>409.1542221280459</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4489796369296</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N45" t="n">
-        <v>1092.959599824921</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O45" t="n">
-        <v>1304.895617311988</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P45" t="n">
-        <v>1467.163064126186</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q45" t="n">
         <v>1687.264539063037</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>645.8995110188645</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="C46" t="n">
-        <v>474.806138580581</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="D46" t="n">
-        <v>315.311493903491</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="E46" t="n">
-        <v>263.9970489706581</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="F46" t="n">
-        <v>263.9970489706581</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="G46" t="n">
-        <v>263.9970489706581</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="H46" t="n">
-        <v>122.991576717685</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="I46" t="n">
         <v>35.74099050576837</v>
@@ -7812,46 +7812,46 @@
         <v>110.3049721335449</v>
       </c>
       <c r="L46" t="n">
-        <v>451.4831578130892</v>
+        <v>511.1809682508391</v>
       </c>
       <c r="M46" t="n">
-        <v>889.3896932141681</v>
+        <v>604.1211541376325</v>
       </c>
       <c r="N46" t="n">
-        <v>1315.336568651598</v>
+        <v>1030.068029575062</v>
       </c>
       <c r="O46" t="n">
-        <v>1708.927989328892</v>
+        <v>1423.659450252356</v>
       </c>
       <c r="P46" t="n">
-        <v>1768.392458898498</v>
+        <v>1744.021403295081</v>
       </c>
       <c r="Q46" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R46" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S46" t="n">
-        <v>1575.748442655586</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T46" t="n">
-        <v>1575.748442655586</v>
+        <v>1551.634663547879</v>
       </c>
       <c r="U46" t="n">
-        <v>1575.748442655586</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="V46" t="n">
-        <v>1575.748442655586</v>
+        <v>995.0035439350077</v>
       </c>
       <c r="W46" t="n">
-        <v>1296.678778164461</v>
+        <v>715.933879443882</v>
       </c>
       <c r="X46" t="n">
-        <v>1058.334916024144</v>
+        <v>477.5900173035654</v>
       </c>
       <c r="Y46" t="n">
-        <v>833.5992174129088</v>
+        <v>252.8543186923301</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0.9707135290540378</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>214.844871948478</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>202.8122599200938</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>19.22508859755303</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.7525194816471</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>256.8497987851254</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>342.3494572507001</v>
       </c>
       <c r="N13" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>135.2316061725691</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>282.8558693885715</v>
       </c>
       <c r="Q15" t="n">
-        <v>348.0239209944266</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>63.64240096979847</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>348.4508580952379</v>
+        <v>288.1500394712485</v>
       </c>
       <c r="N16" t="n">
         <v>335.3881832803894</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>83.09947510496468</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>83.09947510496445</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>24.09212450449722</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>257.9565141222135</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.76545843403778</v>
+        <v>0.9707135290540378</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>83.09947510496454</v>
+        <v>348.0239209944266</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>129.3003440317544</v>
       </c>
       <c r="M22" t="n">
         <v>348.4508580952379</v>
@@ -9576,7 +9576,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>63.64240096979827</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>127.5494547533709</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>110.0744140796684</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>313.3882124016941</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>343.0521288311769</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>321.4523407766947</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>286.8388325520933</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
         <v>348.4508580952379</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>112.3941039857848</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>238.3528656717301</v>
+        <v>110.0744140796686</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
@@ -9962,10 +9962,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>275.0411313910832</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>65.20595429059512</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>321.4523407766949</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>54.60626164920881</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>335.3881832803894</v>
@@ -10050,7 +10050,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>178.052047047741</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>238.3528656717301</v>
+        <v>110.0744140796686</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>275.0411313910832</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>263.008519362699</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>29.5323910073904</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>321.4523407766949</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>231.669852867847</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
         <v>348.4508580952379</v>
@@ -10287,10 +10287,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>112.394103985785</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.2397745880157629</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>321.4523407766947</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>50.50259229436988</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>178.052047047741</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0.9707135290540378</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>154.0263510775529</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>282.8558693885714</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>101.8942200099469</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>256.8497987851244</v>
+        <v>256.8497987851235</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
         <v>246.129700984478</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>190.7525194816464</v>
+        <v>83.09947510496428</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>256.8497987851244</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10995,7 +10995,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>257.9565141222128</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.76545843403778</v>
+        <v>0.9707135290540378</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>154.0263510775528</v>
       </c>
       <c r="K42" t="n">
-        <v>74.41867511109729</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>254.8105009783448</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>282.8558693885714</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>214.8448719484778</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.179049045948</v>
+        <v>83.09947510496428</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11460,10 +11460,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>256.8497987851244</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>335.3881832803894</v>
@@ -11472,10 +11472,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>24.61722788224003</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>184.423145391144</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>56.44757047259938</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.319061736559</v>
@@ -23320,13 +23320,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>43.14313124260286</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T12" t="n">
-        <v>153.1433946664671</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>80.46624897839507</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>84.29036687014387</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>8.536386922697233</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23503,7 +23503,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T14" t="n">
-        <v>210.6370840092685</v>
+        <v>48.62557716954447</v>
       </c>
       <c r="U14" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.7521662089281</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23582,16 +23582,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>88.91519032756227</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>85.6887943319354</v>
+        <v>6.451474777946615</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.33982164930114</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>56.35428119584085</v>
       </c>
     </row>
     <row r="17">
@@ -23740,13 +23740,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>307.0224843665305</v>
       </c>
       <c r="G17" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>285.9311321812619</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>336.2566496719154</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23816,16 +23816,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>58.87579845669668</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H18" t="n">
         <v>59.00565898536429</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>69.82626658917383</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23901,16 +23901,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>138.7160322610237</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.7579219842406</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>305.7830750748748</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.319061736559</v>
+        <v>49.47076855870415</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>88.91519032756227</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>75.80170360505433</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5.267197432246206</v>
       </c>
       <c r="H22" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>44.10353606915902</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9179208068699</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>48.66734964223104</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I23" t="n">
         <v>3.166568202456219</v>
@@ -24262,19 +24262,19 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>168.7305581574255</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S25" t="n">
-        <v>167.8355178356165</v>
+        <v>92.42625355853895</v>
       </c>
       <c r="T25" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>264.4544522876931</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.5056876845219</v>
+        <v>83.39999139334867</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>151.921539694693</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24618,10 +24618,10 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H28" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>32.83702293684618</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>32.94845720626975</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -24688,16 +24688,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H29" t="n">
-        <v>285.9311321812619</v>
+        <v>81.99507857862733</v>
       </c>
       <c r="I29" t="n">
         <v>3.166568202456219</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>209.2458034885891</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>74.7650021636389</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>86.37808034979749</v>
+        <v>67.40161208716884</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>307.3892556440656</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>32.18751894677405</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25086,13 +25086,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>1.197470003639381</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H34" t="n">
-        <v>139.5954175304433</v>
+        <v>97.15113868415023</v>
       </c>
       <c r="I34" t="n">
         <v>86.37808034979749</v>
@@ -25125,13 +25125,13 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S34" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>307.8694721515269</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H35" t="n">
         <v>285.9311321812619</v>
@@ -25219,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>282.1079467152844</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>59.00565898536429</v>
+        <v>40.05056829360787</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>88.9151903275629</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>150.0445319874317</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>122.7247106772492</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H37" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>86.37808034979749</v>
@@ -25368,7 +25368,7 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H38" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U38" t="n">
-        <v>143.2820288855847</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>349.6306039057609</v>
       </c>
     </row>
     <row r="39">
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>85.6887943319354</v>
       </c>
       <c r="T39" t="n">
-        <v>147.9208493129275</v>
+        <v>40.05056829360674</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>114.1908998219964</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>135.5005734272211</v>
       </c>
       <c r="H40" t="n">
         <v>139.5954175304433</v>
@@ -25602,10 +25602,10 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T40" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>195.570997430016</v>
       </c>
       <c r="D41" t="n">
-        <v>305.7830750748751</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.319061736559</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>117.8814574420612</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>69.82626658917454</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9437104424423524</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>112.6626787276318</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T43" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>305.0901450535679</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>108.3097428325231</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25930,7 +25930,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25949,19 +25949,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>114.3217557972674</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>20.96164455521853</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>108.5004064968591</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26040,10 +26040,10 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>57.25859477520535</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T46" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>399325.9989532663</v>
+        <v>399325.9989532662</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>399325.9989532662</v>
+        <v>399325.9989532661</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>399325.9989532661</v>
+        <v>399325.9989532663</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>449945.4653993527</v>
+        <v>449945.4653993526</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>449945.4653993525</v>
+        <v>449945.4653993526</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>399325.9989532661</v>
+        <v>399325.998953266</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>399325.9989532661</v>
+        <v>399325.998953266</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>399325.9989532662</v>
+        <v>399325.9989532661</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>469807.0309616039</v>
+      </c>
+      <c r="C2" t="n">
         <v>469807.030961604</v>
-      </c>
-      <c r="C2" t="n">
-        <v>469807.0309616042</v>
       </c>
       <c r="D2" t="n">
         <v>469807.030961604</v>
       </c>
       <c r="E2" t="n">
+        <v>266923.8839720012</v>
+      </c>
+      <c r="F2" t="n">
+        <v>266923.8839720012</v>
+      </c>
+      <c r="G2" t="n">
         <v>266923.8839720013</v>
-      </c>
-      <c r="F2" t="n">
-        <v>266923.8839720013</v>
-      </c>
-      <c r="G2" t="n">
-        <v>266923.8839720011</v>
       </c>
       <c r="H2" t="n">
         <v>266923.8839720013</v>
       </c>
       <c r="I2" t="n">
-        <v>291651.4647518098</v>
+        <v>291651.4647518101</v>
       </c>
       <c r="J2" t="n">
-        <v>291651.46475181</v>
+        <v>291651.4647518099</v>
       </c>
       <c r="K2" t="n">
         <v>291651.46475181</v>
       </c>
       <c r="L2" t="n">
-        <v>291651.4647518099</v>
+        <v>291651.46475181</v>
       </c>
       <c r="M2" t="n">
+        <v>266923.883972001</v>
+      </c>
+      <c r="N2" t="n">
+        <v>266923.8839720013</v>
+      </c>
+      <c r="O2" t="n">
+        <v>266923.8839720011</v>
+      </c>
+      <c r="P2" t="n">
         <v>266923.8839720012</v>
-      </c>
-      <c r="N2" t="n">
-        <v>266923.8839720012</v>
-      </c>
-      <c r="O2" t="n">
-        <v>266923.8839720012</v>
-      </c>
-      <c r="P2" t="n">
-        <v>266923.8839720013</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16007.44950723706</v>
+        <v>16007.44950723702</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>96333.8238368585</v>
+        <v>96333.82383685868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,28 +26429,28 @@
         <v>22338.26332389929</v>
       </c>
       <c r="F4" t="n">
+        <v>22338.26332389927</v>
+      </c>
+      <c r="G4" t="n">
         <v>22338.26332389929</v>
       </c>
-      <c r="G4" t="n">
-        <v>22338.26332389928</v>
-      </c>
       <c r="H4" t="n">
-        <v>22338.26332389928</v>
+        <v>22338.26332389929</v>
       </c>
       <c r="I4" t="n">
-        <v>38050.24587611407</v>
+        <v>38050.24587611405</v>
       </c>
       <c r="J4" t="n">
         <v>38050.24587611406</v>
       </c>
       <c r="K4" t="n">
+        <v>38050.24587611407</v>
+      </c>
+      <c r="L4" t="n">
         <v>38050.24587611406</v>
       </c>
-      <c r="L4" t="n">
-        <v>38050.24587611407</v>
-      </c>
       <c r="M4" t="n">
-        <v>22338.26332389927</v>
+        <v>22338.26332389919</v>
       </c>
       <c r="N4" t="n">
         <v>22338.26332389927</v>
@@ -26459,7 +26459,7 @@
         <v>22338.26332389926</v>
       </c>
       <c r="P4" t="n">
-        <v>22338.26332389926</v>
+        <v>22338.26332389927</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>38742.42450886575</v>
       </c>
       <c r="F5" t="n">
+        <v>38742.42450886574</v>
+      </c>
+      <c r="G5" t="n">
         <v>38742.42450886575</v>
       </c>
-      <c r="G5" t="n">
-        <v>38742.42450886574</v>
-      </c>
       <c r="H5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="I5" t="n">
         <v>42402.35708297614</v>
@@ -26502,7 +26502,7 @@
         <v>42402.35708297614</v>
       </c>
       <c r="M5" t="n">
-        <v>38742.42450886573</v>
+        <v>38742.42450886572</v>
       </c>
       <c r="N5" t="n">
         <v>38742.42450886573</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78031.78604242147</v>
+        <v>78022.986356792</v>
       </c>
       <c r="C6" t="n">
-        <v>78031.78604242171</v>
+        <v>78022.98635679205</v>
       </c>
       <c r="D6" t="n">
-        <v>78031.78604242153</v>
+        <v>78022.98635679205</v>
       </c>
       <c r="E6" t="n">
-        <v>-354285.1598238079</v>
+        <v>-354993.5565680223</v>
       </c>
       <c r="F6" t="n">
-        <v>205843.1961392363</v>
+        <v>205134.799395022</v>
       </c>
       <c r="G6" t="n">
-        <v>205843.1961392361</v>
+        <v>205134.799395022</v>
       </c>
       <c r="H6" t="n">
-        <v>205843.1961392362</v>
+        <v>205134.799395022</v>
       </c>
       <c r="I6" t="n">
-        <v>195191.4122854826</v>
+        <v>194568.283061199</v>
       </c>
       <c r="J6" t="n">
-        <v>211198.8617927198</v>
+        <v>210575.7325684358</v>
       </c>
       <c r="K6" t="n">
-        <v>211198.8617927197</v>
+        <v>210575.7325684359</v>
       </c>
       <c r="L6" t="n">
-        <v>211198.8617927197</v>
+        <v>210575.7325684359</v>
       </c>
       <c r="M6" t="n">
-        <v>109509.3723023777</v>
+        <v>108800.9755581632</v>
       </c>
       <c r="N6" t="n">
-        <v>205843.1961392362</v>
+        <v>205134.799395022</v>
       </c>
       <c r="O6" t="n">
-        <v>205843.1961392362</v>
+        <v>205134.7993950219</v>
       </c>
       <c r="P6" t="n">
-        <v>205843.1961392363</v>
+        <v>205134.799395022</v>
       </c>
     </row>
   </sheetData>
@@ -26801,16 +26801,16 @@
         <v>446.7623813221048</v>
       </c>
       <c r="F4" t="n">
+        <v>446.7623813221047</v>
+      </c>
+      <c r="G4" t="n">
         <v>446.7623813221048</v>
       </c>
-      <c r="G4" t="n">
-        <v>446.7623813221047</v>
-      </c>
       <c r="H4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="I4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="J4" t="n">
         <v>506.9586407647101</v>
@@ -26819,10 +26819,10 @@
         <v>506.9586407647101</v>
       </c>
       <c r="L4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221044</v>
       </c>
       <c r="N4" t="n">
         <v>446.7623813221047</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.19625944260537</v>
+        <v>60.1962594426052</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>386.5661218794983</v>
+        <v>386.566121879499</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34146,7 +34146,7 @@
         <v>381.0093406442477</v>
       </c>
       <c r="O41" t="n">
-        <v>359.7763162174684</v>
+        <v>359.7763162174687</v>
       </c>
       <c r="P41" t="n">
         <v>307.0607621723544</v>
@@ -34389,7 +34389,7 @@
         <v>307.0607621723544</v>
       </c>
       <c r="Q44" t="n">
-        <v>230.5898445322265</v>
+        <v>230.5898445322262</v>
       </c>
       <c r="R44" t="n">
         <v>134.1323917685636</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K12" t="n">
         <v>128.6618609232977</v>
@@ -35497,19 +35497,19 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M12" t="n">
-        <v>446.7623813221048</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N12" t="n">
-        <v>446.7623813221048</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O12" t="n">
         <v>214.076785340472</v>
       </c>
       <c r="P12" t="n">
-        <v>183.1316005310863</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.14567311248757</v>
+        <v>279.8981925941347</v>
       </c>
       <c r="R12" t="n">
         <v>11.934615907475</v>
@@ -35570,25 +35570,25 @@
         <v>16.28530536328818</v>
       </c>
       <c r="K13" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L13" t="n">
-        <v>344.6244299793386</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M13" t="n">
-        <v>442.3298337384635</v>
+        <v>436.2284328939257</v>
       </c>
       <c r="N13" t="n">
-        <v>430.2493691287167</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O13" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P13" t="n">
-        <v>60.06512077738009</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J15" t="n">
         <v>56.57134117968751</v>
       </c>
       <c r="K15" t="n">
-        <v>128.6618609232977</v>
+        <v>263.8934670958668</v>
       </c>
       <c r="L15" t="n">
         <v>191.9518803437599</v>
@@ -35743,13 +35743,13 @@
         <v>214.076785340472</v>
       </c>
       <c r="P15" t="n">
-        <v>163.9065119335332</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="Q15" t="n">
-        <v>437.1695941069142</v>
+        <v>89.14567311248757</v>
       </c>
       <c r="R15" t="n">
-        <v>100.7929153791732</v>
+        <v>11.934615907475</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K16" t="n">
-        <v>122.6742487658805</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L16" t="n">
-        <v>87.77463119421319</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M16" t="n">
-        <v>442.3298337384635</v>
+        <v>382.0290151144742</v>
       </c>
       <c r="N16" t="n">
         <v>430.2493691287167</v>
@@ -35825,7 +35825,7 @@
         <v>60.06512077738009</v>
       </c>
       <c r="Q16" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>302.7010421641655</v>
       </c>
       <c r="K18" t="n">
-        <v>128.6618609232977</v>
+        <v>211.7613360282623</v>
       </c>
       <c r="L18" t="n">
         <v>191.9518803437599</v>
@@ -35980,7 +35980,7 @@
         <v>214.076785340472</v>
       </c>
       <c r="P18" t="n">
-        <v>247.0059870384977</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q18" t="n">
         <v>89.14567311248757</v>
@@ -36044,25 +36044,25 @@
         <v>16.28530536328818</v>
       </c>
       <c r="K19" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L19" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M19" t="n">
-        <v>93.87897564322566</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N19" t="n">
-        <v>118.9533103528245</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O19" t="n">
-        <v>397.5670915932262</v>
+        <v>337.2662729692372</v>
       </c>
       <c r="P19" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q19" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>18.79474490498374</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>302.7010421641655</v>
+        <v>56.57134117968751</v>
       </c>
       <c r="K21" t="n">
         <v>128.6618609232977</v>
@@ -36220,7 +36220,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q21" t="n">
-        <v>172.2451482174521</v>
+        <v>437.1695941069142</v>
       </c>
       <c r="R21" t="n">
         <v>100.7929153791732</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K22" t="n">
         <v>59.03184779608208</v>
       </c>
       <c r="L22" t="n">
-        <v>87.77463119421319</v>
+        <v>217.0749752259676</v>
       </c>
       <c r="M22" t="n">
         <v>442.3298337384635</v>
@@ -36296,7 +36296,7 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P22" t="n">
-        <v>123.7075217471784</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q22" t="n">
         <v>146.3949763593511</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>107.9084797608297</v>
+        <v>217.9828938404981</v>
       </c>
       <c r="K23" t="n">
         <v>182.4835053289586</v>
       </c>
       <c r="L23" t="n">
-        <v>479.8359656331641</v>
+        <v>241.4830999614339</v>
       </c>
       <c r="M23" t="n">
         <v>281.6521564735544</v>
@@ -36381,7 +36381,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R23" t="n">
-        <v>46.82024895384008</v>
+        <v>175.0987005459018</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J24" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K24" t="n">
         <v>128.6618609232977</v>
       </c>
       <c r="L24" t="n">
-        <v>505.3400927454539</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M24" t="n">
         <v>231.9175093736268</v>
@@ -36454,13 +36454,13 @@
         <v>214.076785340472</v>
       </c>
       <c r="P24" t="n">
-        <v>506.9586407647101</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.14567311248757</v>
+        <v>410.5980138891822</v>
       </c>
       <c r="R24" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K25" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L25" t="n">
-        <v>374.6134637463065</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M25" t="n">
         <v>442.3298337384635</v>
@@ -36536,7 +36536,7 @@
         <v>60.06512077738009</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.8455216059803</v>
+        <v>131.2396255917651</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>346.2613454325598</v>
+        <v>217.9828938404983</v>
       </c>
       <c r="K26" t="n">
         <v>182.4835053289586</v>
@@ -36618,7 +36618,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R26" t="n">
-        <v>46.82024895384008</v>
+        <v>175.0987005459018</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J27" t="n">
         <v>302.7010421641655</v>
@@ -36682,10 +36682,10 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M27" t="n">
-        <v>506.9586407647101</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N27" t="n">
-        <v>309.1560756926062</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O27" t="n">
         <v>214.076785340472</v>
@@ -36694,7 +36694,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.14567311248757</v>
+        <v>410.5980138891824</v>
       </c>
       <c r="R27" t="n">
         <v>100.7929153791732</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16.28530536328818</v>
+        <v>70.89156701249699</v>
       </c>
       <c r="K28" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L28" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M28" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N28" t="n">
         <v>430.2493691287167</v>
@@ -36770,7 +36770,7 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P28" t="n">
-        <v>238.1171678251211</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q28" t="n">
         <v>18.8455216059803</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>346.2613454325598</v>
+        <v>217.9828938404983</v>
       </c>
       <c r="K29" t="n">
         <v>182.4835053289586</v>
@@ -36855,7 +36855,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R29" t="n">
-        <v>46.82024895384008</v>
+        <v>175.0987005459018</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J30" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K30" t="n">
         <v>128.6618609232977</v>
@@ -36919,19 +36919,19 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M30" t="n">
-        <v>506.9586407647101</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N30" t="n">
-        <v>506.9586407647101</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O30" t="n">
-        <v>243.6091763478624</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P30" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.14567311248757</v>
+        <v>410.5980138891824</v>
       </c>
       <c r="R30" t="n">
         <v>100.7929153791732</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K31" t="n">
         <v>59.03184779608208</v>
       </c>
       <c r="L31" t="n">
-        <v>319.4444840620602</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M31" t="n">
         <v>442.3298337384635</v>
@@ -37007,10 +37007,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P31" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.8455216059803</v>
+        <v>131.2396255917653</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>243.9501214020111</v>
       </c>
       <c r="O33" t="n">
-        <v>214.3165599284878</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P33" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q33" t="n">
-        <v>499.2165387728651</v>
+        <v>410.5980138891822</v>
       </c>
       <c r="R33" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.28530536328818</v>
+        <v>66.78789765765806</v>
       </c>
       <c r="K34" t="n">
         <v>59.03184779608208</v>
@@ -37244,10 +37244,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P34" t="n">
-        <v>238.1171678251211</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>281.6521564735544</v>
       </c>
       <c r="N35" t="n">
-        <v>288.0970498876284</v>
+        <v>288.0970498876271</v>
       </c>
       <c r="O35" t="n">
         <v>266.5865405916856</v>
@@ -37329,7 +37329,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R35" t="n">
-        <v>46.82024895383996</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K36" t="n">
         <v>128.6618609232977</v>
@@ -37396,19 +37396,19 @@
         <v>231.9175093736268</v>
       </c>
       <c r="N36" t="n">
-        <v>397.9764724795639</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O36" t="n">
         <v>214.076785340472</v>
       </c>
       <c r="P36" t="n">
-        <v>446.7623813221047</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.14567311248757</v>
+        <v>191.0398931224345</v>
       </c>
       <c r="R36" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>59.03184779608208</v>
       </c>
       <c r="L37" t="n">
-        <v>344.6244299793377</v>
+        <v>344.6244299793368</v>
       </c>
       <c r="M37" t="n">
         <v>442.3298337384635</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>107.9084797608294</v>
+        <v>107.9084797608297</v>
       </c>
       <c r="K38" t="n">
         <v>182.4835053289586</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J39" t="n">
         <v>302.7010421641655</v>
@@ -37642,10 +37642,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q39" t="n">
-        <v>279.898192594134</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R39" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>59.03184779608208</v>
       </c>
       <c r="L40" t="n">
-        <v>404.9252486033274</v>
+        <v>344.6244299793377</v>
       </c>
       <c r="M40" t="n">
         <v>442.3298337384635</v>
@@ -37715,7 +37715,7 @@
         <v>430.2493691287167</v>
       </c>
       <c r="O40" t="n">
-        <v>337.2662729692365</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P40" t="n">
         <v>60.06512077738009</v>
@@ -37794,7 +37794,7 @@
         <v>288.0970498876284</v>
       </c>
       <c r="O41" t="n">
-        <v>266.5865405916853</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P41" t="n">
         <v>213.4113988914702</v>
@@ -37803,7 +37803,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R41" t="n">
-        <v>46.82024895384008</v>
+        <v>46.82024895383996</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>18.79474490498374</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>56.57134117968751</v>
+        <v>210.5976922572404</v>
       </c>
       <c r="K42" t="n">
-        <v>203.080536034395</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L42" t="n">
-        <v>446.7623813221047</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M42" t="n">
         <v>231.9175093736268</v>
@@ -37876,13 +37876,13 @@
         <v>214.076785340472</v>
       </c>
       <c r="P42" t="n">
-        <v>163.9065119335332</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="Q42" t="n">
         <v>89.14567311248757</v>
       </c>
       <c r="R42" t="n">
-        <v>100.7929153791732</v>
+        <v>11.934615907475</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q44" t="n">
-        <v>140.5560401330744</v>
+        <v>140.5560401330742</v>
       </c>
       <c r="R44" t="n">
         <v>46.82024895384008</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J45" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K45" t="n">
         <v>128.6618609232977</v>
@@ -38104,7 +38104,7 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M45" t="n">
-        <v>446.7623813221047</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N45" t="n">
         <v>243.9501214020111</v>
@@ -38116,7 +38116,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q45" t="n">
-        <v>222.3247221584356</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R45" t="n">
         <v>100.7929153791732</v>
@@ -38180,10 +38180,10 @@
         <v>59.03184779608208</v>
       </c>
       <c r="L46" t="n">
-        <v>344.6244299793377</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M46" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N46" t="n">
         <v>430.2493691287167</v>
@@ -38192,10 +38192,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P46" t="n">
-        <v>60.06512077738009</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.8455216059803</v>
+        <v>43.46274948822033</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
